--- a/docs/TimesheetGlobal.xlsx
+++ b/docs/TimesheetGlobal.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
   <si>
     <t>Tarefas</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Levantamento inicial de dados de Relatórios</t>
-  </si>
-  <si>
-    <t>INCOMPLETO</t>
   </si>
   <si>
     <t>1h30min</t>
@@ -268,10 +265,6 @@
   </si>
   <si>
     <t>2h50min</t>
-  </si>
-  <si>
-    <t>Fazer desenho melhor do 
-que será usado conforme visto</t>
   </si>
   <si>
     <t>50min</t>
@@ -294,6 +287,9 @@
     <t>Atualizar documentação de 
 CRUD de produto
 Acabar de desenhar diagrama de classes</t>
+  </si>
+  <si>
+    <t>1h35min</t>
   </si>
 </sst>
 </file>
@@ -727,7 +723,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,15 +746,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -767,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -796,14 +792,14 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -811,46 +807,44 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -859,27 +853,27 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -888,65 +882,65 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1000,47 +994,47 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1049,27 +1043,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1078,27 +1072,27 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1147,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1164,45 +1158,45 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1211,27 +1205,27 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1240,27 +1234,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1309,47 +1303,47 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1358,59 +1352,59 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1456,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,48 +1467,48 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1523,27 +1517,27 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1552,27 +1546,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>

--- a/docs/TimesheetGlobal.xlsx
+++ b/docs/TimesheetGlobal.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
   <si>
     <t>Tarefas</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>30min</t>
-  </si>
-  <si>
-    <t>20min</t>
   </si>
   <si>
     <t>Criar cardápio genérico para testes</t>
@@ -284,12 +281,17 @@
 Início da codificação</t>
   </si>
   <si>
+    <t>1h35min</t>
+  </si>
+  <si>
     <t>Atualizar documentação de 
-CRUD de produto
-Acabar de desenhar diagrama de classes</t>
-  </si>
-  <si>
-    <t>1h35min</t>
+CRUD de produto</t>
+  </si>
+  <si>
+    <t>39min</t>
+  </si>
+  <si>
+    <t>Familiarização com o ambiente</t>
   </si>
 </sst>
 </file>
@@ -723,7 +725,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +734,8 @@
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,27 +749,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,10 +780,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -792,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -807,26 +810,26 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>87</v>
@@ -835,16 +838,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -853,27 +862,27 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -882,65 +891,68 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -994,47 +1006,47 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1043,27 +1055,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1072,27 +1084,27 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1141,15 +1153,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1158,45 +1170,45 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1205,27 +1217,27 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1234,27 +1246,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1303,47 +1315,47 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1352,59 +1364,59 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1450,15 +1462,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1467,48 +1479,48 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1517,27 +1529,27 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1546,27 +1558,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>

--- a/docs/TimesheetGlobal.xlsx
+++ b/docs/TimesheetGlobal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Johnny" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>Tarefas</t>
   </si>
@@ -267,31 +267,46 @@
     <t>50min</t>
   </si>
   <si>
-    <t>Preparação do ambiente</t>
-  </si>
-  <si>
     <t>Doc. Especificação do módulo de BI</t>
   </si>
   <si>
-    <t>Codificação inicial
-Página de login criada</t>
+    <t>1h35min</t>
+  </si>
+  <si>
+    <t>39min</t>
+  </si>
+  <si>
+    <t>Tutorial Django/Python</t>
+  </si>
+  <si>
+    <t>6h40min</t>
+  </si>
+  <si>
+    <t>9h40min</t>
+  </si>
+  <si>
+    <t>7h40min</t>
+  </si>
+  <si>
+    <t>8h40min</t>
   </si>
   <si>
     <t>Familiarização com o ambiente
-Início da codificação</t>
-  </si>
-  <si>
-    <t>1h35min</t>
-  </si>
-  <si>
-    <t>Atualizar documentação de 
-CRUD de produto</t>
-  </si>
-  <si>
-    <t>39min</t>
-  </si>
-  <si>
-    <t>Familiarização com o ambiente</t>
+Inicio da codificação</t>
+  </si>
+  <si>
+    <t>Tutor Django/Python</t>
+  </si>
+  <si>
+    <t>2h40min</t>
+  </si>
+  <si>
+    <t>Familiarização com o ambiente
+Planejamento inicial do código</t>
+  </si>
+  <si>
+    <t>Ajudando outros a codificar
+Esclarecendo problemas encontrados</t>
   </si>
 </sst>
 </file>
@@ -724,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +800,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -800,7 +815,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -810,15 +825,15 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -826,15 +841,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -843,13 +856,7 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -858,7 +865,25 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -918,7 +943,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -964,7 +989,7 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="F2:F9"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="F16:F18"/>
@@ -981,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +1016,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1029,20 +1054,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1051,7 +1077,19 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1113,9 +1151,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F2:F4"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F2:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1129,7 +1167,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1176,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1189,22 +1227,17 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1213,7 +1246,25 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1275,9 +1326,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F2:F5"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F2:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1291,7 +1342,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1351,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1345,12 +1396,6 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1362,6 +1407,24 @@
       </c>
       <c r="F4" s="3"/>
     </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
@@ -1422,9 +1485,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F2:F4"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F2:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1438,7 +1501,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1510,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1499,7 +1562,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1510,12 +1573,6 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,6 +1584,24 @@
       </c>
       <c r="F5" s="3"/>
     </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
@@ -1587,9 +1662,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F2:F5"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F2:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/docs/TimesheetGlobal.xlsx
+++ b/docs/TimesheetGlobal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Johnny" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
   <si>
     <t>Tarefas</t>
   </si>
@@ -236,9 +236,6 @@
     <t>SPRINT 3</t>
   </si>
   <si>
-    <t>REVER</t>
-  </si>
-  <si>
     <t>MISC</t>
   </si>
   <si>
@@ -254,10 +251,6 @@
     <t>Integração no módulo - Módulos completos</t>
   </si>
   <si>
-    <t>Adicionar CRUD - Produto
-Redefinir conforme feriados e estimativas de provas</t>
-  </si>
-  <si>
     <t>12min</t>
   </si>
   <si>
@@ -279,34 +272,36 @@
     <t>Tutorial Django/Python</t>
   </si>
   <si>
-    <t>6h40min</t>
-  </si>
-  <si>
     <t>9h40min</t>
   </si>
   <si>
     <t>7h40min</t>
   </si>
   <si>
-    <t>8h40min</t>
-  </si>
-  <si>
-    <t>Familiarização com o ambiente
-Inicio da codificação</t>
-  </si>
-  <si>
     <t>Tutor Django/Python</t>
   </si>
   <si>
     <t>2h40min</t>
-  </si>
-  <si>
-    <t>Familiarização com o ambiente
-Planejamento inicial do código</t>
   </si>
   <si>
     <t>Ajudando outros a codificar
 Esclarecendo problemas encontrados</t>
+  </si>
+  <si>
+    <t>20h40min</t>
+  </si>
+  <si>
+    <t>Problemas setando o ambiente
+Talvez compatibilidade entre versões do python e django</t>
+  </si>
+  <si>
+    <t>12h40min</t>
+  </si>
+  <si>
+    <t>5min</t>
+  </si>
+  <si>
+    <t>6h</t>
   </si>
 </sst>
 </file>
@@ -740,7 +735,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -825,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -841,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -856,6 +851,12 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,22 +868,20 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -916,7 +915,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -927,7 +926,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -936,14 +935,14 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -954,13 +953,11 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,13 +968,13 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1006,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,17 +1074,23 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1167,7 +1170,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,6 +1239,12 @@
       <c r="B4" t="s">
         <v>30</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
@@ -1248,22 +1257,20 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1396,6 +1403,12 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,22 +1420,20 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1500,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1573,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1584,9 +1595,9 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1598,7 +1609,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F6" s="3"/>
     </row>

--- a/docs/TimesheetGlobal.xlsx
+++ b/docs/TimesheetGlobal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Johnny" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Lucas" sheetId="3" r:id="rId3"/>
     <sheet name="Thiago" sheetId="4" r:id="rId4"/>
     <sheet name="Nsunda" sheetId="5" r:id="rId5"/>
+    <sheet name="PlanB" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
   <si>
     <t>Tarefas</t>
   </si>
@@ -302,6 +303,72 @@
   </si>
   <si>
     <t>6h</t>
+  </si>
+  <si>
+    <t>REVER DOC</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Anselmo</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Nsunda</t>
+  </si>
+  <si>
+    <t>Módulo de Pedido</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Módulo de Marketing</t>
+  </si>
+  <si>
+    <t>Módulo de BI</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Criar padrão de formulário feedback
+Codificação de enviar feedback
+Testes</t>
+  </si>
+  <si>
+    <t>Rever Documentação - OK
+Codificação - NOW
+Testes</t>
+  </si>
+  <si>
+    <t>Página Listando Produtos - NOW
+Codificação
+Testes</t>
+  </si>
+  <si>
+    <t>Revisão de Produtos - NOW
+Aplicar formato da sala de página</t>
+  </si>
+  <si>
+    <t>API para outro módulos 
+poderem atualizar o status do produto - NOW
+Testes</t>
+  </si>
+  <si>
+    <t>API de pagamento - NOW
+Página de pagamento - OK
+Testes</t>
+  </si>
+  <si>
+    <t>Rever Documentação
+Integração entre funções - SNDBY</t>
   </si>
 </sst>
 </file>
@@ -735,7 +802,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1511,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1682,4 +1749,110 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>